--- a/Horarios 2025.xlsx
+++ b/Horarios 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\Estudios academicos\Sistemas-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBA97C5-5042-4626-9BCD-DE5E6E865F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2998079-701A-4097-8D6A-DF2313E5CF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A9F919EC-C4D0-4C2C-8C38-A5DEC8BFFCF3}"/>
   </bookViews>
@@ -430,90 +430,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,6 +438,90 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,488 +860,488 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="32"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="28">
+      <c r="F2" s="8"/>
+      <c r="G2" s="6">
         <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="28"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="28"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="28"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="28"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="28"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="28"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="28"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="28"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="28"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="28"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="28"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="28"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="28"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="28"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="29"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="21" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="27">
+      <c r="E23" s="23"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="5">
         <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="28"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="28"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="28"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="28"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="28"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="28"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="28"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="28"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="28"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="28"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="29"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="27">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="5">
         <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="28"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="28"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="28"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="28"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="28"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="28"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="28"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="28"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="28"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="28"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="29"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="1"/>
@@ -1382,47 +1382,15 @@
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="G23:G34"/>
-    <mergeCell ref="G35:G46"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G2:G22"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F14:F22"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="E44:E46"/>
     <mergeCell ref="F44:F46"/>
     <mergeCell ref="B32:B34"/>
@@ -1438,18 +1406,50 @@
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="B11:B22"/>
     <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
     <mergeCell ref="B2:B10"/>
+    <mergeCell ref="G23:G34"/>
+    <mergeCell ref="G35:G46"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G2:G22"/>
+    <mergeCell ref="F14:F22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
